--- a/HMBOM.xlsx
+++ b/HMBOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>类别</t>
   </si>
@@ -27,7 +27,19 @@
     <t>器件编号</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>最大输入电压</t>
+  </si>
+  <si>
+    <t>最大额定电流</t>
+  </si>
+  <si>
+    <t>输出电压</t>
+  </si>
+  <si>
+    <t>负压输出</t>
+  </si>
+  <si>
+    <t>工作温度范围</t>
   </si>
   <si>
     <t>P-DCDC</t>
@@ -36,13 +48,58 @@
     <t>LM2596</t>
   </si>
   <si>
+    <t>40V</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>1.2-37V</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> −40˚C ≤ TJ ≤ +125˚C</t>
+  </si>
+  <si>
     <t>TPS54331</t>
   </si>
   <si>
+    <t>28V</t>
+  </si>
+  <si>
+    <t>Nomal：3.3V</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> −40˚C ≤ TJ ≤ +150˚C</t>
+  </si>
+  <si>
     <t>P-LDO</t>
   </si>
   <si>
     <t>AMS1117</t>
+  </si>
+  <si>
+    <t>1.5V≤ (VIN - VOUT) ≤ 12V</t>
+  </si>
+  <si>
+    <t>0.8A</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LV2842</t>
+  </si>
+  <si>
+    <t>1.2A</t>
+  </si>
+  <si>
+    <t>Nomal：5V</t>
   </si>
   <si>
     <t>P-ACDC</t>
@@ -53,12 +110,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +132,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -82,7 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,68 +175,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,6 +213,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,14 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -234,25 +284,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,49 +428,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,97 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,15 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,6 +489,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,6 +524,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,164 +575,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,21 +1080,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.95" customWidth="1"/>
     <col min="2" max="2" width="18.05" customWidth="1"/>
     <col min="3" max="3" width="16.6416666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="35.8583333333333" customWidth="1"/>
+    <col min="5" max="5" width="18.4333333333333" customWidth="1"/>
+    <col min="6" max="6" width="14.1416666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.8416666666667" customWidth="1"/>
+    <col min="8" max="8" width="26.7916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="18.75" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,42 +1113,122 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="18.75" spans="1:4">
+    <row r="2" ht="18.75" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="18.75" spans="1:4">
+    <row r="3" ht="18.75" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" ht="18.75" spans="1:4">
+    <row r="4" ht="18.75" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1124,17 +1260,17 @@
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
